--- a/xlsx/乔治·沃克·布什_intext.xlsx
+++ b/xlsx/乔治·沃克·布什_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="968">
   <si>
     <t>乔治·沃克·布什</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_乔治·沃克·布什</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_乔治·沃克·布什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國總統列表</t>
+    <t>美国总统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E5%88%87%E5%B0%BC</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>德克薩斯</t>
+    <t>德克萨斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bob_Bullock</t>
@@ -89,9 +89,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E6%8B%89%C2%B7%E5%A8%81%E5%B0%94%E5%A3%AB%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%88%88%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中興大學</t>
+    <t>中兴大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%9C%8B%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>經國管理學院</t>
+    <t>经国管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%A3%E5%85%AC%E4%BC%9A</t>
@@ -233,9 +230,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -251,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%B8%83%C2%B7%E5%B8%83%E5%B8%8C</t>
   </si>
   <si>
-    <t>傑布·布希</t>
+    <t>杰布·布希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E8%A2%AD%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
@@ -275,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
@@ -287,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>阿爾蓋達組織</t>
+    <t>阿尔盖达组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86</t>
@@ -317,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
   </si>
   <si>
-    <t>約翰·凱瑞</t>
+    <t>约翰·凯瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>美國同性婚姻</t>
+    <t>美国同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%A1%94%E9%82%A3%E6%91%A9%E6%B9%BE</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8%E5%8D%A1%E7%89%B9%E9%87%8C%E5%A8%9C</t>
   </si>
   <si>
-    <t>颶風卡特里娜</t>
+    <t>飓风卡特里娜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%A8%E7%BA%BF</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%81%89%E5%A4%A7%E7%9A%84%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>最偉大的美國人</t>
+    <t>最伟大的美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E8%BF%AA%E5%85%8B%E5%B7%9E</t>
@@ -371,19 +365,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
   </si>
   <si>
-    <t>喬治·赫伯特·沃克·布什</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%BB%98%E5%A1%9E%E7%89%B9%E9%83%A1</t>
   </si>
   <si>
-    <t>薩默塞特郡</t>
+    <t>萨默塞特郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A1%BF</t>
@@ -413,9 +404,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%9A%E4%BD%9B</t>
   </si>
   <si>
@@ -449,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ellington_Field_Joint_Reserve_Base</t>
@@ -479,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
@@ -491,13 +479,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -509,19 +494,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%A2%B0</t>
   </si>
   <si>
-    <t>槍械</t>
+    <t>枪械</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -545,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>福音神學</t>
+    <t>福音神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德州遊騎兵 (棒球)</t>
+    <t>德州游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%C2%B7%E8%90%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>諾蘭·萊恩</t>
+    <t>诺兰·莱恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>馬拉松</t>
+    <t>马拉松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%A1%BE%E9%97%AE</t>
@@ -587,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95</t>
@@ -599,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -611,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -629,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%88%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>學券制</t>
+    <t>学券制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -653,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%87%B1%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·麥凱恩</t>
+    <t>约翰·麦凯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -671,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E9%8C%A2%E5%B0%BC</t>
   </si>
   <si>
-    <t>迪克·錢尼</t>
+    <t>迪克·钱尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%80%AB%E6%96%AF%E6%96%90</t>
   </si>
   <si>
-    <t>唐納德·倫斯斐</t>
+    <t>唐纳德·伦斯斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
@@ -689,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E6%88%88%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾·戈爾</t>
+    <t>艾尔·戈尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
@@ -725,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -749,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
@@ -773,15 +755,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%89%BE%E5%B8%8C%E5%85%8B%E7%BE%85</t>
   </si>
   <si>
-    <t>約翰·艾希克羅</t>
+    <t>约翰·艾希克罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
   </si>
   <si>
-    <t>堕胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
@@ -797,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%84%9B%E5%9C%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>美國愛國法</t>
+    <t>美国爱国法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
@@ -839,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AF%BA%C2%B7%E6%96%BD%E7%93%A6%E8%BE%9B%E6%A0%BC</t>
@@ -851,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -869,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
@@ -935,19 +914,19 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E7%BE%8E%E5%9C%8B%E6%9C%9F%E4%B8%AD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2006年美國期中選舉</t>
+    <t>2006年美国期中选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%93%8B%E8%8C%A8</t>
   </si>
   <si>
-    <t>羅伯特·蓋茨</t>
+    <t>罗伯特·盖茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%AE%93%E4%BB%BB%E4%BD%95%E5%AD%A9%E5%AD%90%E8%90%BD%E5%BE%8C</t>
   </si>
   <si>
-    <t>不讓任何孩子落後</t>
+    <t>不让任何孩子落后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
@@ -965,31 +944,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%A1%9B%E7%94%9F%E7%A0%94%E7%A9%B6%E9%99%A2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國立衛生研究院 (美國)</t>
+    <t>国立卫生研究院 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E6%BC%B2</t>
   </si>
   <si>
-    <t>通貨膨漲</t>
+    <t>通货膨涨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>醫療保險</t>
+    <t>医疗保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -1013,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>幹細胞</t>
+    <t>干细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -1025,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E7%B7%8A%E7%B8%AE</t>
   </si>
   <si>
-    <t>通貨緊縮</t>
+    <t>通货紧缩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
@@ -1061,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國墨西哥灣沿岸地區</t>
+    <t>美国墨西哥湾沿岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF</t>
@@ -1079,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E7%8E%9B%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB</t>
@@ -1097,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E5%9F%83%E5%8B%92%C2%B7%E6%B2%99%E9%BE%8D</t>
   </si>
   <si>
-    <t>阿里埃勒·沙龍</t>
+    <t>阿里埃勒·沙龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
@@ -1109,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1121,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%AF%BC%E5%BC%B9%E9%98%B2%E5%BE%A1%E7%B3%BB%E7%BB%9F</t>
@@ -1133,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>流氓國家</t>
+    <t>流氓国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AD%A3%E6%97%A5</t>
@@ -1169,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -1223,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E5%AF%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>達爾富爾</t>
+    <t>达尔富尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E7%81%AD%E7%BB%9D</t>
@@ -1247,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%BB%A5%E9%BB%8E%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>2006年以黎衝突</t>
+    <t>2006年以黎冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>格魯吉亞</t>
+    <t>格鲁吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
@@ -1295,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E6%9C%9D%E9%AE%AE%E6%A0%B8%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>2006年朝鮮核試驗</t>
+    <t>2006年朝鲜核试验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%94%E7%9B%9F_(%E9%98%BF%E5%AF%8C%E6%B1%97)</t>
@@ -1325,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E9%98%BF%E5%AF%8C%E6%B1%97%E5%9C%8B%E9%9A%9B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>駐阿富汗國際維和部隊</t>
+    <t>驻阿富汗国际维和部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1421,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>林肯號航空母艦</t>
+    <t>林肯号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%8F%E9%81%94%E5%93%88%C2%B7%E6%89%8E%E4%BC%8A%E8%BF%AA</t>
   </si>
   <si>
-    <t>敏達哈·扎伊迪</t>
+    <t>敏达哈·扎伊迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
@@ -1445,9 +1424,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%9B%96%E8%8C%A8</t>
   </si>
   <si>
-    <t>罗伯特·盖茨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
@@ -1457,13 +1433,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A5%A7%E5%B0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>保羅·奧尼爾</t>
+    <t>保罗·奥尼尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%8F%B2%E8%AB%BE</t>
   </si>
   <si>
-    <t>約翰·威廉·史諾</t>
+    <t>约翰·威廉·史诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E4%BF%9D%E5%B0%94%E6%A3%AE</t>
@@ -1475,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國司法部長</t>
+    <t>美国司法部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%98%BF%E4%BB%80%E5%85%8B%E7%BD%97%E5%A4%AB%E7%89%B9</t>
@@ -1487,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國內政部長</t>
+    <t>美国内政部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8%E9%95%BF</t>
@@ -1523,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%B0%8F%E8%98%AD</t>
   </si>
   <si>
-    <t>趙小蘭</t>
+    <t>赵小兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%8F%E6%88%BF%E5%92%8C%E5%9F%8E%E5%B8%82%E5%8F%91%E5%B1%95%E9%83%A8%E9%95%BF</t>
@@ -1547,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國能源部長</t>
+    <t>美国能源部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%BD%98%E5%A1%9E%C2%B7%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95</t>
@@ -1559,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國教育部長</t>
+    <t>美国教育部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E4%B8%BD%E7%89%B9%C2%B7%E6%96%AF%E4%BD%A9%E6%9E%97%E6%96%AF</t>
@@ -1589,13 +1565,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
   </si>
   <si>
-    <t>約翰·格洛佛·羅伯茨</t>
+    <t>约翰·格洛佛·罗伯茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A7%E5%BA%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>桑德拉·戴·奧康納</t>
+    <t>桑德拉·戴·奥康纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%AF%8D%E8%80%B3%C2%B7%E8%89%BE%E5%88%A9%E6%89%98</t>
@@ -1613,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E7%88%BE%C2%B7%E8%96%A9%E5%8D%A1%E4%BB%80%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>米哈伊爾·薩卡什維利</t>
+    <t>米哈伊尔·萨卡什维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
@@ -1631,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
+    <t>时代年度风云人物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%C2%B7%E6%91%A9%E5%B0%94</t>
@@ -1649,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B0%8F911</t>
   </si>
   <si>
-    <t>華氏911</t>
+    <t>华氏911</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%93%88%E7%89%B9%C2%B7%E6%96%BD%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>格哈特·施羅德</t>
+    <t>格哈特·施罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E7%BD%97%E5%BE%B7%E9%87%8C%E6%A0%BC%E6%96%AF%C2%B7%E8%90%A8%E5%B8%95%E7%89%B9%E7%BD%97</t>
@@ -1685,25 +1661,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%88%88%C2%B7%E6%9F%A5%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>烏戈·查維茲</t>
+    <t>乌戈·查维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%9C%8D%E8%8F%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>約翰·霍華德</t>
+    <t>约翰·霍华德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%B3%89%E7%B4%94%E4%B8%80%E9%83%8E</t>
   </si>
   <si>
-    <t>小泉純一郎</t>
+    <t>小泉纯一郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%93%88%E7%8F%80</t>
@@ -1715,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%83%A1%E5%BE%B7%C2%B7%E5%A5%A7%E7%88%BE%E9%BB%98%E7%89%B9</t>
   </si>
   <si>
-    <t>艾胡德·奧爾默特</t>
+    <t>艾胡德·奥尔默特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
@@ -1733,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E6%9C%AB%E5%A4%9C%E7%8F%BE%E5%A0%B4</t>
   </si>
   <si>
-    <t>週末夜現場</t>
+    <t>周末夜现场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E4%BC%A6%E5%A0%A1%E5%AE%A1%E5%88%A4</t>
@@ -1835,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%89%B9%C2%B7%E7%BE%85%E5%A7%86%E5%B0%BC</t>
   </si>
   <si>
-    <t>米特·羅姆尼</t>
+    <t>米特·罗姆尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_New_York_Times</t>
@@ -1865,19 +1841,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美国总统列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗战争 (2001年)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -1889,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%B8%8C%E6%8B%89%E5%85%8B</t>
@@ -1919,25 +1889,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯道夫·朱利安尼</t>
+    <t>鲁道夫·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>好撒馬利亞人</t>
+    <t>好撒马利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%AB%BE</t>
   </si>
   <si>
-    <t>波諾</t>
+    <t>波诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E7%9B%96%E8%8C%A8</t>
@@ -2183,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%86%85%E9%98%81%E5%88%97%E8%A1%A8</t>
@@ -2225,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F</t>
   </si>
   <si>
-    <t>大衛營</t>
+    <t>大卫营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%B1%B1</t>
@@ -2249,9 +2219,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国司法部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E9%9F%A6%E6%89%98%C2%B7%E5%86%88%E8%90%A8%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
@@ -2267,9 +2234,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国内政部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%96%E5%B0%94%C2%B7%E8%AF%BA%E9%A1%BF</t>
   </si>
   <si>
@@ -2321,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E8%88%87%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國住房與城市發展部長</t>
+    <t>美国住房与城市发展部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%C2%B7%E9%A9%AC%E4%B8%81%E5%86%85%E6%96%AF</t>
@@ -2357,13 +2321,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
   </si>
   <si>
-    <t>白宮幕僚長</t>
+    <t>白宫幕僚长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%C2%B7%E5%8D%9A%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>約書亞·博爾頓</t>
+    <t>约书亚·博尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A5%87%C2%B7%E4%B8%B9%E5%B0%BC%E5%B0%94%E6%96%AF</t>
@@ -2399,19 +2363,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>时代年度风云人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -2441,13 +2402,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -2525,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -2567,7 +2528,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -2597,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -2609,7 +2570,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -2639,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%978%E5%8F%B7</t>
@@ -2699,7 +2660,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -2711,7 +2672,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -2747,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -2765,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%89%8E%E5%85%8B%C2%B7%E6%8B%89%E5%AE%BE</t>
@@ -2789,13 +2750,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -2825,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -2849,13 +2810,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -2873,7 +2834,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2891,7 +2852,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2909,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2927,13 +2888,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3676,7 +3637,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>34</v>
@@ -3702,10 +3663,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -3731,10 +3692,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -3760,10 +3721,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -3789,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -3818,10 +3779,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -3847,10 +3808,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -3876,10 +3837,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -3905,10 +3866,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3934,10 +3895,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3963,10 +3924,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3992,10 +3953,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -4021,10 +3982,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -4050,10 +4011,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -4079,10 +4040,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -4108,10 +4069,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4137,10 +4098,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4166,10 +4127,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4195,10 +4156,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -4224,10 +4185,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4253,10 +4214,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4282,10 +4243,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -4311,10 +4272,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>16</v>
@@ -4340,10 +4301,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>24</v>
@@ -4369,10 +4330,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4398,10 +4359,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -4427,10 +4388,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -4456,10 +4417,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4485,10 +4446,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>11</v>
@@ -4514,10 +4475,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -4543,10 +4504,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -4572,10 +4533,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -4601,10 +4562,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>7</v>
@@ -4630,10 +4591,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4659,10 +4620,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>14</v>
@@ -4688,10 +4649,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4717,10 +4678,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -4746,10 +4707,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>20</v>
@@ -4775,10 +4736,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4804,10 +4765,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4833,10 +4794,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4862,10 +4823,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -4891,10 +4852,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4920,10 +4881,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4949,10 +4910,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4978,10 +4939,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5007,10 +4968,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -5036,10 +4997,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5065,10 +5026,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
         <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>44</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5094,10 +5055,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5123,10 +5084,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5152,10 +5113,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5181,10 +5142,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -5210,10 +5171,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5239,10 +5200,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5268,10 +5229,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -5297,10 +5258,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -5326,10 +5287,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5355,10 +5316,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5384,10 +5345,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5413,10 +5374,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5442,10 +5403,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5471,10 +5432,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -5500,10 +5461,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5529,10 +5490,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5558,10 +5519,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5587,10 +5548,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5616,10 +5577,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -5645,10 +5606,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5674,10 +5635,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5703,10 +5664,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5732,10 +5693,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -5761,10 +5722,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5790,10 +5751,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" t="s">
         <v>57</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5819,10 +5780,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5848,10 +5809,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5877,10 +5838,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5906,10 +5867,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5935,10 +5896,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5964,10 +5925,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5993,10 +5954,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
         <v>33</v>
-      </c>
-      <c r="F93" t="s">
-        <v>34</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -6022,10 +5983,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -6051,10 +6012,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6080,10 +6041,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6109,10 +6070,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6138,10 +6099,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -6167,10 +6128,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6196,10 +6157,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>20</v>
@@ -6225,10 +6186,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>8</v>
@@ -6254,10 +6215,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -6283,10 +6244,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -6312,10 +6273,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -6341,10 +6302,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6370,10 +6331,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6399,10 +6360,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>10</v>
@@ -6428,10 +6389,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6457,10 +6418,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6486,10 +6447,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6515,10 +6476,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6544,10 +6505,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6573,10 +6534,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -6602,10 +6563,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6631,10 +6592,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -6660,10 +6621,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6689,10 +6650,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6718,10 +6679,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6747,10 +6708,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6776,10 +6737,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6805,10 +6766,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6834,10 +6795,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6863,10 +6824,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6892,10 +6853,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6921,10 +6882,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6950,10 +6911,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -6979,10 +6940,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7008,10 +6969,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7037,10 +6998,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7066,10 +7027,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7095,10 +7056,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F131" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7124,10 +7085,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7153,10 +7114,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7182,10 +7143,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7211,10 +7172,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>47</v>
@@ -7240,10 +7201,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7269,10 +7230,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7298,10 +7259,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>18</v>
@@ -7327,10 +7288,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>28</v>
@@ -7356,10 +7317,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7385,10 +7346,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7414,10 +7375,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7443,10 +7404,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7472,10 +7433,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7501,10 +7462,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7530,10 +7491,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7559,10 +7520,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7588,10 +7549,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7617,10 +7578,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -7646,10 +7607,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7675,10 +7636,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7704,10 +7665,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7733,10 +7694,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7762,10 +7723,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7791,10 +7752,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7820,10 +7781,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7849,10 +7810,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7878,10 +7839,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7907,10 +7868,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7936,10 +7897,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7965,10 +7926,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7994,10 +7955,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>44</v>
+      </c>
+      <c r="F162" t="s">
         <v>45</v>
-      </c>
-      <c r="F162" t="s">
-        <v>46</v>
       </c>
       <c r="G162" t="n">
         <v>24</v>
@@ -8023,10 +7984,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>5</v>
@@ -8052,10 +8013,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8081,10 +8042,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8110,10 +8071,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8139,10 +8100,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8168,10 +8129,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8197,10 +8158,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8226,10 +8187,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -8255,10 +8216,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8284,10 +8245,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -8313,10 +8274,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -8342,10 +8303,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -8371,10 +8332,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8400,10 +8361,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8429,10 +8390,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8458,10 +8419,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F178" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8487,10 +8448,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8516,10 +8477,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8545,10 +8506,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8574,10 +8535,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8603,10 +8564,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F183" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8632,10 +8593,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8661,10 +8622,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8690,10 +8651,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8719,10 +8680,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8748,10 +8709,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F188" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8777,10 +8738,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8806,10 +8767,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8835,10 +8796,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8864,10 +8825,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8893,10 +8854,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8922,10 +8883,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8951,10 +8912,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8980,10 +8941,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9009,10 +8970,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9038,10 +8999,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G198" t="n">
         <v>9</v>
@@ -9067,10 +9028,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9096,10 +9057,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9125,10 +9086,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9154,10 +9115,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9183,10 +9144,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9212,10 +9173,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9241,10 +9202,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9270,10 +9231,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F206" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9299,10 +9260,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>5</v>
@@ -9328,10 +9289,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -9386,10 +9347,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9415,10 +9376,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9444,10 +9405,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9473,10 +9434,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9502,10 +9463,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9531,10 +9492,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9560,10 +9521,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9589,10 +9550,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -9618,10 +9579,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9647,10 +9608,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9676,10 +9637,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9705,10 +9666,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9734,10 +9695,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9763,10 +9724,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9792,10 +9753,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9821,10 +9782,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9850,10 +9811,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9879,10 +9840,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F227" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9908,10 +9869,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9937,10 +9898,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9966,10 +9927,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -9995,10 +9956,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10024,10 +9985,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10053,10 +10014,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10082,10 +10043,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10111,10 +10072,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10140,10 +10101,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10169,10 +10130,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10198,10 +10159,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10227,10 +10188,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10256,10 +10217,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10285,10 +10246,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10314,10 +10275,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10343,10 +10304,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10372,10 +10333,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10401,10 +10362,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10430,10 +10391,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10459,10 +10420,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10488,10 +10449,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10517,10 +10478,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10546,10 +10507,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10575,10 +10536,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -10604,10 +10565,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F252" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10633,10 +10594,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F253" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10662,10 +10623,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>301</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10691,10 +10652,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10720,10 +10681,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10749,10 +10710,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10778,10 +10739,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10807,10 +10768,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10836,10 +10797,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10865,10 +10826,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10894,10 +10855,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10923,10 +10884,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10952,10 +10913,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10981,10 +10942,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11010,10 +10971,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11039,10 +11000,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11068,10 +11029,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11097,10 +11058,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11126,10 +11087,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11155,10 +11116,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11184,10 +11145,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11213,10 +11174,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11242,10 +11203,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11271,10 +11232,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11300,10 +11261,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11329,10 +11290,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11358,10 +11319,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11387,10 +11348,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11416,10 +11377,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11445,10 +11406,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11474,10 +11435,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11503,10 +11464,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11532,10 +11493,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11561,10 +11522,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11590,10 +11551,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G286" t="n">
         <v>5</v>
@@ -11619,10 +11580,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11648,10 +11609,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11677,10 +11638,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11706,10 +11667,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11735,10 +11696,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11764,10 +11725,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11793,10 +11754,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11822,10 +11783,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11851,10 +11812,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11880,10 +11841,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11909,10 +11870,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11938,10 +11899,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11967,10 +11928,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11996,10 +11957,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -12025,10 +11986,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12054,10 +12015,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12083,10 +12044,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F303" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12112,10 +12073,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F304" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12141,10 +12102,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F305" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12170,10 +12131,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F306" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12199,10 +12160,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12228,10 +12189,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F308" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12257,10 +12218,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F309" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12286,10 +12247,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12315,10 +12276,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F311" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12344,10 +12305,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F312" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12373,10 +12334,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12402,10 +12363,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>30</v>
+      </c>
+      <c r="F314" t="s">
         <v>31</v>
-      </c>
-      <c r="F314" t="s">
-        <v>32</v>
       </c>
       <c r="G314" t="n">
         <v>25</v>
@@ -12431,10 +12392,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F315" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12460,10 +12421,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F316" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G316" t="n">
         <v>6</v>
@@ -12489,10 +12450,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F317" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12518,10 +12479,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F318" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12547,10 +12508,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F319" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12576,10 +12537,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12605,10 +12566,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12634,10 +12595,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12663,10 +12624,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12692,10 +12653,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G324" t="n">
         <v>6</v>
@@ -12721,10 +12682,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G325" t="n">
         <v>9</v>
@@ -12750,10 +12711,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G326" t="n">
         <v>8</v>
@@ -12779,10 +12740,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>6</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12808,10 +12769,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>84</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12837,10 +12798,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>68</v>
+      </c>
+      <c r="F329" t="s">
         <v>69</v>
-      </c>
-      <c r="F329" t="s">
-        <v>70</v>
       </c>
       <c r="G329" t="n">
         <v>14</v>
@@ -12866,10 +12827,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12895,10 +12856,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12924,10 +12885,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G332" t="n">
         <v>7</v>
@@ -12953,10 +12914,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12982,10 +12943,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13011,10 +12972,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G335" t="n">
         <v>5</v>
@@ -13040,10 +13001,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13069,10 +13030,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F337" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G337" t="n">
         <v>4</v>
@@ -13098,10 +13059,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13127,10 +13088,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13156,10 +13117,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13185,10 +13146,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F341" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13214,10 +13175,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F342" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13243,10 +13204,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F343" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13272,10 +13233,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F344" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G344" t="n">
         <v>5</v>
@@ -13301,10 +13262,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F345" t="s">
-        <v>616</v>
+        <v>6</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13330,10 +13291,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F346" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13359,10 +13320,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F347" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13388,10 +13349,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F348" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13417,10 +13378,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F349" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13446,10 +13407,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F350" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13475,10 +13436,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F351" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13504,10 +13465,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F352" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13533,10 +13494,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F353" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13562,10 +13523,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F354" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13591,10 +13552,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F355" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13620,10 +13581,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F356" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13649,10 +13610,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F357" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13678,10 +13639,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F358" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13707,10 +13668,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F359" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13736,10 +13697,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F360" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13765,10 +13726,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13794,10 +13755,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F362" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13823,10 +13784,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F363" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13852,10 +13813,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F364" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13881,10 +13842,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13910,10 +13871,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13939,10 +13900,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F367" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13968,10 +13929,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F368" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13997,10 +13958,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F369" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14026,10 +13987,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F370" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14055,10 +14016,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F371" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14084,10 +14045,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F372" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14113,10 +14074,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F373" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14142,10 +14103,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F374" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14171,10 +14132,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F375" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14200,10 +14161,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F376" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -14229,10 +14190,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F377" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -14258,10 +14219,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F378" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14287,10 +14248,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F379" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14316,10 +14277,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F380" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -14345,10 +14306,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F381" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14374,10 +14335,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F382" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -14403,10 +14364,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F383" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14432,10 +14393,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F384" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G384" t="n">
         <v>6</v>
@@ -14461,10 +14422,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F385" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14490,10 +14451,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F386" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G386" t="n">
         <v>8</v>
@@ -14519,10 +14480,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F387" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -14548,10 +14509,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F388" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14577,10 +14538,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F389" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14606,10 +14567,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F390" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14635,10 +14596,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F391" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14664,10 +14625,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F392" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14693,10 +14654,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F393" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14722,10 +14683,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F394" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14751,10 +14712,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F395" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14780,10 +14741,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F396" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14809,10 +14770,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F397" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14838,10 +14799,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F398" t="s">
-        <v>744</v>
+        <v>478</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14867,10 +14828,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F399" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14896,10 +14857,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F400" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14925,10 +14886,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F401" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14954,10 +14915,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F402" t="s">
-        <v>750</v>
+        <v>482</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14983,10 +14944,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F403" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15012,10 +14973,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F404" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15041,10 +15002,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F405" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15070,10 +15031,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F406" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15099,10 +15060,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F407" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15128,10 +15089,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F408" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15157,10 +15118,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F409" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15186,10 +15147,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F410" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15215,10 +15176,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F411" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15244,10 +15205,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F412" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15273,10 +15234,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F413" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15302,10 +15263,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F414" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15331,10 +15292,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F415" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15360,10 +15321,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F416" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15389,10 +15350,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F417" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15418,10 +15379,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F418" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15447,10 +15408,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F419" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15476,10 +15437,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F420" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15505,10 +15466,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F421" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15534,10 +15495,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F422" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15563,10 +15524,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F423" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15592,10 +15553,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F424" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15621,10 +15582,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F425" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15650,10 +15611,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F426" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15679,10 +15640,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F427" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15708,10 +15669,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F428" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15737,10 +15698,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F429" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15766,10 +15727,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F430" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -15795,10 +15756,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F431" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15824,10 +15785,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F432" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -15853,10 +15814,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F433" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15882,10 +15843,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="F434" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15911,10 +15872,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="F435" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15940,10 +15901,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="F436" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15969,10 +15930,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="F437" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15998,10 +15959,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="F438" t="s">
-        <v>794</v>
+        <v>532</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16027,10 +15988,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F439" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16056,10 +16017,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F440" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16085,10 +16046,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F441" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16114,10 +16075,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F442" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16143,10 +16104,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F443" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G443" t="n">
         <v>3</v>
@@ -16172,10 +16133,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F444" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16201,10 +16162,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F445" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16230,10 +16191,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F446" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16259,10 +16220,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F447" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16288,10 +16249,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F448" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16317,10 +16278,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="F449" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16346,10 +16307,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F450" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16375,10 +16336,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F451" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16404,10 +16365,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F452" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16433,10 +16394,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="F453" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16462,10 +16423,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="F454" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16491,10 +16452,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="F455" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16520,10 +16481,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="F456" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16549,10 +16510,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F457" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16578,10 +16539,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F458" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16607,10 +16568,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F459" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16636,10 +16597,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="F460" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16665,10 +16626,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="F461" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16694,10 +16655,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F462" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16723,10 +16684,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F463" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16752,10 +16713,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F464" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16781,10 +16742,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F465" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16810,10 +16771,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="F466" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16839,10 +16800,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F467" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16868,10 +16829,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="F468" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16897,10 +16858,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F469" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16926,10 +16887,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F470" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16955,10 +16916,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F471" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16984,10 +16945,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="F472" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17013,10 +16974,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F473" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17042,10 +17003,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F474" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17071,10 +17032,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="F475" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17100,10 +17061,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="F476" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17129,10 +17090,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F477" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17158,10 +17119,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="F478" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17187,10 +17148,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="F479" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17216,10 +17177,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F480" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17245,10 +17206,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="F481" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17274,10 +17235,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F482" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17303,10 +17264,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="F483" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17332,10 +17293,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="F484" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17361,10 +17322,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="F485" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17390,10 +17351,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="F486" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17419,10 +17380,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="F487" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17448,10 +17409,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="F488" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17477,10 +17438,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="F489" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17506,10 +17467,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="F490" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17535,10 +17496,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="F491" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17564,10 +17525,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="F492" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17593,10 +17554,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="F493" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17622,10 +17583,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="F494" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17651,10 +17612,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="F495" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17680,10 +17641,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="F496" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17709,10 +17670,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="F497" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17738,10 +17699,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="F498" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -17767,10 +17728,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="F499" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17796,10 +17757,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="F500" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17825,10 +17786,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="F501" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17854,10 +17815,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="F502" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17883,10 +17844,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="F503" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17912,10 +17873,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="F504" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17941,10 +17902,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="F505" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -17970,10 +17931,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="F506" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17999,10 +17960,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="F507" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18028,10 +17989,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="F508" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18057,10 +18018,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F509" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18086,10 +18047,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="F510" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18115,10 +18076,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F511" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18144,10 +18105,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="F512" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18173,10 +18134,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="G513" t="n">
         <v>7</v>
@@ -18202,10 +18163,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18231,10 +18192,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18260,10 +18221,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F516" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18289,10 +18250,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="F517" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18318,10 +18279,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F518" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18347,10 +18308,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="F519" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -18376,10 +18337,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F520" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18405,10 +18366,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F521" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18434,10 +18395,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F522" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18463,10 +18424,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F523" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18492,10 +18453,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F524" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18521,10 +18482,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="F525" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18550,10 +18511,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F526" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18579,10 +18540,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F527" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18608,10 +18569,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F528" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18637,10 +18598,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F529" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18666,10 +18627,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F530" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18695,10 +18656,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F531" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18724,10 +18685,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F532" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G532" t="n">
         <v>17</v>
@@ -18753,10 +18714,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F533" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18782,10 +18743,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F534" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G534" t="n">
         <v>3</v>
